--- a/3-results/serverless.xlsx
+++ b/3-results/serverless.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iris_\MSc in Professional Computer Science Big Data\2024 Spring\CMPT 756\containerized-vs-serverless\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iris_\MSc in Professional Computer Science Big Data\2024 Spring\CMPT 756\containerized-vs-serverless\3-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84CC95-00F1-4FBF-907A-05DADD7AEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBDCE7F-CB79-4847-A729-EE92514B7F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{E0B89197-A562-4B4A-847C-5D02A3DA0330}"/>
   </bookViews>
@@ -518,6 +518,153 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1917</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>124653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2EAAAB-AC94-BE8B-CCBC-48A2F9DD74DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="1756808"/>
+          <a:ext cx="7421892" cy="3206545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104080</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1918</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620C0A8C-FD6A-0F12-5E20-9CC67656FC94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2275780" y="1790700"/>
+          <a:ext cx="7174938" cy="3067870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>105221</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1279</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713B9432-DEEF-E8A8-05A7-9386A248315B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1572071" y="1819274"/>
+          <a:ext cx="7878008" cy="4725167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -906,7 +1053,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,8 +1385,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1249,7 +1397,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,8 +1728,9 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1591,7 +1740,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,8 +2072,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>